--- a/planningBachelorproef.xlsx
+++ b/planningBachelorproef.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyva\Documents\HoGent\Tweede semester\Bachelorproef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lyva\Documents\HoGent\Tweede semester\Bachelorproef\Bachelorproef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8C8369-F624-48E9-B036-C72C458E730B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AFE6DCA-0C43-4908-801F-985B871FF93F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
   <si>
     <t>Activiteit</t>
   </si>
@@ -42,12 +42,6 @@
     <t>Mei</t>
   </si>
   <si>
-    <t>Data analyseren</t>
-  </si>
-  <si>
-    <t>Update literatuur lezen</t>
-  </si>
-  <si>
     <t>Weeknummer:</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
   </si>
   <si>
     <t>Onderzoek uitvoeren</t>
-  </si>
-  <si>
-    <t>Uitkomst analyseren</t>
   </si>
   <si>
     <t>Bevinding uitschrijven</t>
@@ -208,7 +199,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,8 +230,15 @@
       <family val="2"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -250,6 +248,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -299,7 +303,8 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -580,23 +585,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="W6" sqref="W6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="12.9" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="16" width="2.33203125" style="4" customWidth="1"/>
-    <col min="17" max="17" width="2.5546875" style="4" customWidth="1"/>
-    <col min="18" max="19" width="9.109375" style="4"/>
-    <col min="20" max="20" width="13.33203125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="1" width="35.3125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="2.3125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="2.5234375" style="4" customWidth="1"/>
+    <col min="18" max="19" width="9.1015625" style="4"/>
+    <col min="20" max="20" width="13.3125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="9.1015625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="40.200000000000003" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" ht="36.9" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -623,9 +628,9 @@
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
     </row>
-    <row r="2" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" ht="14.1" x14ac:dyDescent="0.5">
       <c r="A2" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B2" s="6">
         <v>1</v>
@@ -675,15 +680,18 @@
       <c r="Q2" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+        <v>43</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -696,18 +704,21 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
-      <c r="S3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
+        <v>44</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -720,21 +731,21 @@
       <c r="O4" s="3"/>
       <c r="P4" s="3"/>
       <c r="Q4" s="3"/>
-      <c r="S4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
+        <v>45</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -747,21 +758,21 @@
       <c r="O5" s="3"/>
       <c r="P5" s="3"/>
       <c r="Q5" s="3"/>
-      <c r="S5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="T5" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
+        <v>46</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -774,52 +785,52 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
-      <c r="S6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="S6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+        <v>47</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
       <c r="O7" s="3"/>
       <c r="P7" s="3"/>
       <c r="Q7" s="3"/>
       <c r="S7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
@@ -829,221 +840,227 @@
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
       <c r="S8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="S9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="T8" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
+    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="S10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="T10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-      <c r="S9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="S11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-      <c r="S10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="9"/>
-      <c r="O11" s="9"/>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-      <c r="S11" s="4" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="S12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="T11" s="4" t="s">
+      <c r="T12" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="9"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-      <c r="S12" s="4" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="S13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="4" t="s">
+      <c r="T13" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-      <c r="S13" s="4" t="s">
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="7"/>
+      <c r="S14" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T13" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="9"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-      <c r="S14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="T14" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="9"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="7"/>
       <c r="S15" s="4" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="9"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3">
+        <v>2</v>
+      </c>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3">
+        <v>3</v>
+      </c>
       <c r="S16" s="4" t="s">
         <v>35</v>
       </c>
@@ -1051,106 +1068,33 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="7"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.5">
       <c r="S17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="T17" s="4" t="s">
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="S18" s="4" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="7"/>
-      <c r="S18" s="4" t="s">
-        <v>34</v>
       </c>
       <c r="T18" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3">
-        <v>1</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3">
-        <v>2</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3">
-        <v>3</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="T19" s="4" t="s">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.5">
+      <c r="A20" s="4" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
